--- a/Spec.xlsx
+++ b/Spec.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Activity Workflow" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -52,7 +52,191 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="66675"/>
+          <a:ext cx="8162925" cy="6648450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Connector 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="304800"/>
+          <a:ext cx="247650" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="209550"/>
+          <a:ext cx="457200" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>start</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +317,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +525,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>